--- a/biology/Médecine/Observatoire_national_des_maladies_nouvelles_et_émergentes/Observatoire_national_des_maladies_nouvelles_et_émergentes.xlsx
+++ b/biology/Médecine/Observatoire_national_des_maladies_nouvelles_et_émergentes/Observatoire_national_des_maladies_nouvelles_et_émergentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Observatoire_national_des_maladies_nouvelles_et_%C3%A9mergentes</t>
+          <t>Observatoire_national_des_maladies_nouvelles_et_émergentes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Observatoire national des maladies nouvelles et émergentes (arabe : المرصد الوطني للأمراض الجديدة والمستجدة) ou ONMNE est un établissement public à caractère administratif tunisien fondé le 19 décembre 2005 à la suite du décret no 2005-3294 et placé sous la tutelle du ministère de la Santé[1],[2].
-L'observatoire vise principalement à soutenir la surveillance épidémiologique dans le domaine de la surveillance des maladies nouvelles et émergentes et à déterminer les moyens les plus efficaces pour réduire leurs risques[3].
+L'Observatoire national des maladies nouvelles et émergentes (arabe : المرصد الوطني للأمراض الجديدة والمستجدة) ou ONMNE est un établissement public à caractère administratif tunisien fondé le 19 décembre 2005 à la suite du décret no 2005-3294 et placé sous la tutelle du ministère de la Santé,.
+L'observatoire vise principalement à soutenir la surveillance épidémiologique dans le domaine de la surveillance des maladies nouvelles et émergentes et à déterminer les moyens les plus efficaces pour réduire leurs risques.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Observatoire_national_des_maladies_nouvelles_et_%C3%A9mergentes</t>
+          <t>Observatoire_national_des_maladies_nouvelles_et_émergentes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'observatoire est chargé des tâches suivantes[1],[3],[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'observatoire est chargé des tâches suivantes :
 Collecter et analyser des données relatives aux maladies nouvelles et émergentes afin d'optimiser le système procédural de prise de décision dans le domaine de la prévention de ces maladies ;
 Établir des systèmes d'information sur la vie privée capables de renforcer les capacités dans le domaine de la détection précoce, de la notification rapide et de l'investigation des maladies nouvelles et émergentes ;
 Assurer le suivi de la situation épidémiologique des maladies ayant une propagation rapide au niveau mondial pour éviter ou réduire le risque de fuite transfrontalière ;
